--- a/N 9446 UG BUADY.xlsx
+++ b/N 9446 UG BUADY.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>22/1/2024</t>
+  </si>
+  <si>
+    <t>25/3/2024</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1302,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,12 +1879,25 @@
       <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
+        <v>292470</v>
+      </c>
+      <c r="F27" s="1">
+        <f>10000+E27</f>
+        <v>302470</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
